--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/20/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/20/FD_Curve.xlsx
@@ -521,10 +521,10 @@
         <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>6.66679</v>
+        <v>6.667590000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>6666.79</v>
+        <v>6667.59</v>
       </c>
     </row>
     <row r="9">
@@ -532,1033 +532,1033 @@
         <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>7.182</v>
+        <v>7.814439999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>7182</v>
+        <v>7814.44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247965</v>
+        <v>0.247926</v>
       </c>
       <c r="B10" t="n">
-        <v>7.56178</v>
+        <v>8.58361</v>
       </c>
       <c r="C10" t="n">
-        <v>7561.78</v>
+        <v>8583.610000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278891</v>
+        <v>0.278851</v>
       </c>
       <c r="B11" t="n">
-        <v>7.76834</v>
+        <v>9.128440000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>7768.34</v>
+        <v>9128.440000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309816</v>
+        <v>0.309776</v>
       </c>
       <c r="B12" t="n">
-        <v>7.93349</v>
+        <v>9.517479999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>7933.49</v>
+        <v>9517.48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340741</v>
+        <v>0.340701</v>
       </c>
       <c r="B13" t="n">
-        <v>8.02074</v>
+        <v>9.51263</v>
       </c>
       <c r="C13" t="n">
-        <v>8020.74</v>
+        <v>9512.629999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371666</v>
+        <v>0.371626</v>
       </c>
       <c r="B14" t="n">
-        <v>8.068350000000001</v>
+        <v>9.48376</v>
       </c>
       <c r="C14" t="n">
-        <v>8068.35</v>
+        <v>9483.76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402591</v>
+        <v>0.402551</v>
       </c>
       <c r="B15" t="n">
-        <v>8.080579999999999</v>
+        <v>9.444190000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>8080.58</v>
+        <v>9444.190000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433516</v>
+        <v>0.433476</v>
       </c>
       <c r="B16" t="n">
-        <v>8.068010000000001</v>
+        <v>9.402979999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>8068.01</v>
+        <v>9402.98</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464441</v>
+        <v>0.464401</v>
       </c>
       <c r="B17" t="n">
-        <v>8.04401</v>
+        <v>9.36303</v>
       </c>
       <c r="C17" t="n">
-        <v>8044.01</v>
+        <v>9363.030000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495366</v>
+        <v>0.495326</v>
       </c>
       <c r="B18" t="n">
-        <v>8.014890000000001</v>
+        <v>9.323040000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>8014.89</v>
+        <v>9323.040000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526292</v>
+        <v>0.526251</v>
       </c>
       <c r="B19" t="n">
-        <v>7.98313</v>
+        <v>9.282120000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>7983.13</v>
+        <v>9282.120000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557217</v>
+        <v>0.557176</v>
       </c>
       <c r="B20" t="n">
-        <v>7.949140000000001</v>
+        <v>9.238770000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>7949.14</v>
+        <v>9238.77</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.5881420000000001</v>
+        <v>0.588101</v>
       </c>
       <c r="B21" t="n">
-        <v>7.91345</v>
+        <v>9.188420000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>7913.45</v>
+        <v>9188.42</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619184</v>
+        <v>0.619143</v>
       </c>
       <c r="B22" t="n">
-        <v>7.87539</v>
+        <v>9.136469999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>7875.39</v>
+        <v>9136.469999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650356</v>
+        <v>0.650316</v>
       </c>
       <c r="B23" t="n">
-        <v>7.834960000000001</v>
+        <v>9.07882</v>
       </c>
       <c r="C23" t="n">
-        <v>7834.96</v>
+        <v>9078.82</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.6815290000000001</v>
+        <v>0.681488</v>
       </c>
       <c r="B24" t="n">
-        <v>7.78999</v>
+        <v>9.018840000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>7789.99</v>
+        <v>9018.84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712706</v>
+        <v>0.712665</v>
       </c>
       <c r="B25" t="n">
-        <v>7.740970000000001</v>
+        <v>8.9528</v>
       </c>
       <c r="C25" t="n">
-        <v>7740.97</v>
+        <v>8952.799999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743878</v>
+        <v>0.743838</v>
       </c>
       <c r="B26" t="n">
-        <v>7.68887</v>
+        <v>8.88547</v>
       </c>
       <c r="C26" t="n">
-        <v>7688.87</v>
+        <v>8885.469999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775055</v>
+        <v>0.775015</v>
       </c>
       <c r="B27" t="n">
-        <v>7.6328</v>
+        <v>8.81265</v>
       </c>
       <c r="C27" t="n">
-        <v>7632.8</v>
+        <v>8812.65</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.8062279999999999</v>
+        <v>0.806188</v>
       </c>
       <c r="B28" t="n">
-        <v>7.57289</v>
+        <v>8.739129999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>7572.89</v>
+        <v>8739.129999999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837401</v>
+        <v>0.83736</v>
       </c>
       <c r="B29" t="n">
-        <v>7.50924</v>
+        <v>8.66038</v>
       </c>
       <c r="C29" t="n">
-        <v>7509.24</v>
+        <v>8660.379999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868578</v>
+        <v>0.868537</v>
       </c>
       <c r="B30" t="n">
-        <v>7.44086</v>
+        <v>8.580080000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>7440.86</v>
+        <v>8580.08</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.89975</v>
+        <v>0.89971</v>
       </c>
       <c r="B31" t="n">
-        <v>7.36997</v>
+        <v>8.49577</v>
       </c>
       <c r="C31" t="n">
-        <v>7369.97</v>
+        <v>8495.77</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9309229999999999</v>
+        <v>0.930882</v>
       </c>
       <c r="B32" t="n">
-        <v>7.293970000000001</v>
+        <v>8.40732</v>
       </c>
       <c r="C32" t="n">
-        <v>7293.97</v>
+        <v>8407.32</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9621</v>
+        <v>0.962059</v>
       </c>
       <c r="B33" t="n">
-        <v>7.21633</v>
+        <v>8.31658</v>
       </c>
       <c r="C33" t="n">
-        <v>7216.33</v>
+        <v>8316.58</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993272</v>
+        <v>0.993232</v>
       </c>
       <c r="B34" t="n">
-        <v>7.13295</v>
+        <v>8.22043</v>
       </c>
       <c r="C34" t="n">
-        <v>7132.95</v>
+        <v>8220.43</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02458</v>
+        <v>1.02454</v>
       </c>
       <c r="B35" t="n">
-        <v>7.047569999999999</v>
+        <v>8.122579999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>7047.57</v>
+        <v>8122.58</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05596</v>
+        <v>1.05546</v>
       </c>
       <c r="B36" t="n">
-        <v>6.95761</v>
+        <v>6.64126</v>
       </c>
       <c r="C36" t="n">
-        <v>6957.61</v>
+        <v>6641.26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08727</v>
+        <v>1.08639</v>
       </c>
       <c r="B37" t="n">
-        <v>6.66526</v>
+        <v>9.313499999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>6665.26</v>
+        <v>9313.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11805</v>
+        <v>1.11754</v>
       </c>
       <c r="B38" t="n">
-        <v>5.690810000000001</v>
+        <v>7.3406</v>
       </c>
       <c r="C38" t="n">
-        <v>5690.81</v>
+        <v>7340.6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14922</v>
+        <v>1.14851</v>
       </c>
       <c r="B39" t="n">
-        <v>6.82987</v>
+        <v>7.69266</v>
       </c>
       <c r="C39" t="n">
-        <v>6829.87</v>
+        <v>7692.66</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.18019</v>
+        <v>1.17946</v>
       </c>
       <c r="B40" t="n">
-        <v>6.57076</v>
+        <v>7.80562</v>
       </c>
       <c r="C40" t="n">
-        <v>6570.76</v>
+        <v>7805.62</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.2112</v>
+        <v>1.21048</v>
       </c>
       <c r="B41" t="n">
-        <v>6.410270000000001</v>
+        <v>7.60958</v>
       </c>
       <c r="C41" t="n">
-        <v>6410.27</v>
+        <v>7609.58</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24228</v>
+        <v>1.24179</v>
       </c>
       <c r="B42" t="n">
-        <v>6.41239</v>
+        <v>7.636880000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>6412.39</v>
+        <v>7636.88</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27354</v>
+        <v>1.27264</v>
       </c>
       <c r="B43" t="n">
-        <v>6.238930000000001</v>
+        <v>7.5433</v>
       </c>
       <c r="C43" t="n">
-        <v>6238.93</v>
+        <v>7543.3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30471</v>
+        <v>1.30324</v>
       </c>
       <c r="B44" t="n">
-        <v>6.18128</v>
+        <v>7.36867</v>
       </c>
       <c r="C44" t="n">
-        <v>6181.28</v>
+        <v>7368.67</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33587</v>
+        <v>1.33385</v>
       </c>
       <c r="B45" t="n">
-        <v>6.04218</v>
+        <v>7.19157</v>
       </c>
       <c r="C45" t="n">
-        <v>6042.18</v>
+        <v>7191.57</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36704</v>
+        <v>1.36475</v>
       </c>
       <c r="B46" t="n">
-        <v>5.90694</v>
+        <v>7.1055</v>
       </c>
       <c r="C46" t="n">
-        <v>5906.94</v>
+        <v>7105.5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.3982</v>
+        <v>1.39582</v>
       </c>
       <c r="B47" t="n">
-        <v>5.779710000000001</v>
+        <v>6.95024</v>
       </c>
       <c r="C47" t="n">
-        <v>5779.71</v>
+        <v>6950.24</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42936</v>
+        <v>1.42689</v>
       </c>
       <c r="B48" t="n">
-        <v>5.655819999999999</v>
+        <v>6.78217</v>
       </c>
       <c r="C48" t="n">
-        <v>5655.82</v>
+        <v>6782.17</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.46075</v>
+        <v>1.45798</v>
       </c>
       <c r="B49" t="n">
-        <v>5.54013</v>
+        <v>6.68457</v>
       </c>
       <c r="C49" t="n">
-        <v>5540.13</v>
+        <v>6684.57</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.49217</v>
+        <v>1.48864</v>
       </c>
       <c r="B50" t="n">
-        <v>5.38521</v>
+        <v>6.5545</v>
       </c>
       <c r="C50" t="n">
-        <v>5385.21</v>
+        <v>6554.5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52343</v>
+        <v>1.52006</v>
       </c>
       <c r="B51" t="n">
-        <v>5.32652</v>
+        <v>6.476649999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>5326.52</v>
+        <v>6476.65</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55402</v>
+        <v>1.55075</v>
       </c>
       <c r="B52" t="n">
-        <v>5.256430000000001</v>
+        <v>6.32446</v>
       </c>
       <c r="C52" t="n">
-        <v>5256.43</v>
+        <v>6324.46</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58544</v>
+        <v>1.58205</v>
       </c>
       <c r="B53" t="n">
-        <v>5.14777</v>
+        <v>6.20293</v>
       </c>
       <c r="C53" t="n">
-        <v>5147.77</v>
+        <v>6202.93</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.6162</v>
+        <v>1.61295</v>
       </c>
       <c r="B54" t="n">
-        <v>5.02699</v>
+        <v>6.05902</v>
       </c>
       <c r="C54" t="n">
-        <v>5026.99</v>
+        <v>6059.02</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64725</v>
+        <v>1.64389</v>
       </c>
       <c r="B55" t="n">
-        <v>4.94308</v>
+        <v>6.00071</v>
       </c>
       <c r="C55" t="n">
-        <v>4943.08</v>
+        <v>6000.71</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67827</v>
+        <v>1.67512</v>
       </c>
       <c r="B56" t="n">
-        <v>4.862649999999999</v>
+        <v>5.87255</v>
       </c>
       <c r="C56" t="n">
-        <v>4862.65</v>
+        <v>5872.55</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70889</v>
+        <v>1.7057</v>
       </c>
       <c r="B57" t="n">
-        <v>4.817340000000001</v>
+        <v>5.78502</v>
       </c>
       <c r="C57" t="n">
-        <v>4817.34</v>
+        <v>5785.02</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.74036</v>
+        <v>1.73707</v>
       </c>
       <c r="B58" t="n">
-        <v>4.6996</v>
+        <v>5.657850000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>4699.6</v>
+        <v>5657.85</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.7712</v>
+        <v>1.76801</v>
       </c>
       <c r="B59" t="n">
-        <v>4.61379</v>
+        <v>5.58663</v>
       </c>
       <c r="C59" t="n">
-        <v>4613.79</v>
+        <v>5586.63</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.80206</v>
+        <v>1.7985</v>
       </c>
       <c r="B60" t="n">
-        <v>4.545470000000001</v>
+        <v>5.49424</v>
       </c>
       <c r="C60" t="n">
-        <v>4545.47</v>
+        <v>5494.24</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83335</v>
+        <v>1.83008</v>
       </c>
       <c r="B61" t="n">
-        <v>4.47235</v>
+        <v>5.39715</v>
       </c>
       <c r="C61" t="n">
-        <v>4472.35</v>
+        <v>5397.15</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86402</v>
+        <v>1.86103</v>
       </c>
       <c r="B62" t="n">
-        <v>4.42048</v>
+        <v>5.31345</v>
       </c>
       <c r="C62" t="n">
-        <v>4420.48</v>
+        <v>5313.45</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89493</v>
+        <v>1.89148</v>
       </c>
       <c r="B63" t="n">
-        <v>4.33712</v>
+        <v>5.242310000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>4337.12</v>
+        <v>5242.31</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92646</v>
+        <v>1.92307</v>
       </c>
       <c r="B64" t="n">
-        <v>4.2737</v>
+        <v>5.167560000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>4273.7</v>
+        <v>5167.56</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95722</v>
+        <v>1.9541</v>
       </c>
       <c r="B65" t="n">
-        <v>4.21196</v>
+        <v>5.08526</v>
       </c>
       <c r="C65" t="n">
-        <v>4211.96</v>
+        <v>5085.26</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.9875</v>
+        <v>1.98472</v>
       </c>
       <c r="B66" t="n">
-        <v>4.14454</v>
+        <v>5.041060000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>4144.54</v>
+        <v>5041.06</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01914</v>
+        <v>2.01574</v>
       </c>
       <c r="B67" t="n">
-        <v>4.09006</v>
+        <v>4.96971</v>
       </c>
       <c r="C67" t="n">
-        <v>4090.06</v>
+        <v>4969.71</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.05022</v>
+        <v>2.04682</v>
       </c>
       <c r="B68" t="n">
-        <v>4.0456</v>
+        <v>4.90749</v>
       </c>
       <c r="C68" t="n">
-        <v>4045.6</v>
+        <v>4907.49</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.08131</v>
+        <v>2.0779</v>
       </c>
       <c r="B69" t="n">
-        <v>3.97962</v>
+        <v>4.8432</v>
       </c>
       <c r="C69" t="n">
-        <v>3979.62</v>
+        <v>4843.2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.11144</v>
+        <v>2.10851</v>
       </c>
       <c r="B70" t="n">
-        <v>3.90056</v>
+        <v>4.82</v>
       </c>
       <c r="C70" t="n">
-        <v>3900.56</v>
+        <v>4820</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14294</v>
+        <v>2.13942</v>
       </c>
       <c r="B71" t="n">
-        <v>3.87204</v>
+        <v>4.74877</v>
       </c>
       <c r="C71" t="n">
-        <v>3872.04</v>
+        <v>4748.77</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17445</v>
+        <v>2.17091</v>
       </c>
       <c r="B72" t="n">
-        <v>3.83788</v>
+        <v>4.69484</v>
       </c>
       <c r="C72" t="n">
-        <v>3837.88</v>
+        <v>4694.84</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20578</v>
+        <v>2.20239</v>
       </c>
       <c r="B73" t="n">
-        <v>3.7763</v>
+        <v>4.64017</v>
       </c>
       <c r="C73" t="n">
-        <v>3776.3</v>
+        <v>4640.17</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23575</v>
+        <v>2.23249</v>
       </c>
       <c r="B74" t="n">
-        <v>3.73272</v>
+        <v>4.61188</v>
       </c>
       <c r="C74" t="n">
-        <v>3732.72</v>
+        <v>4611.88</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26671</v>
+        <v>2.2627</v>
       </c>
       <c r="B75" t="n">
-        <v>3.72957</v>
+        <v>4.555680000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>3729.57</v>
+        <v>4555.68</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29745</v>
+        <v>2.29469</v>
       </c>
       <c r="B76" t="n">
-        <v>3.72573</v>
+        <v>4.520930000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>3725.73</v>
+        <v>4520.93</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32817</v>
+        <v>2.32668</v>
       </c>
       <c r="B77" t="n">
-        <v>3.71228</v>
+        <v>4.46593</v>
       </c>
       <c r="C77" t="n">
-        <v>3712.28</v>
+        <v>4465.93</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35889</v>
+        <v>2.35727</v>
       </c>
       <c r="B78" t="n">
-        <v>3.70532</v>
+        <v>4.4345</v>
       </c>
       <c r="C78" t="n">
-        <v>3705.32</v>
+        <v>4434.5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38961</v>
+        <v>2.38714</v>
       </c>
       <c r="B79" t="n">
-        <v>3.69628</v>
+        <v>4.38558</v>
       </c>
       <c r="C79" t="n">
-        <v>3696.28</v>
+        <v>4385.58</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.42061</v>
+        <v>2.41705</v>
       </c>
       <c r="B80" t="n">
-        <v>3.68421</v>
+        <v>4.353569999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>3684.21</v>
+        <v>4353.57</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.44932</v>
+        <v>2.44725</v>
       </c>
       <c r="B81" t="n">
-        <v>3.68392</v>
+        <v>4.301229999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>3683.92</v>
+        <v>4301.23</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.47749</v>
+        <v>2.47678</v>
       </c>
       <c r="B82" t="n">
-        <v>3.64665</v>
+        <v>4.280609999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>3646.65</v>
+        <v>4280.61</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.50565</v>
+        <v>2.50539</v>
       </c>
       <c r="B83" t="n">
-        <v>3.6487</v>
+        <v>4.29005</v>
       </c>
       <c r="C83" t="n">
-        <v>3648.7</v>
+        <v>4290.05</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.53381</v>
+        <v>2.53991</v>
       </c>
       <c r="B84" t="n">
-        <v>3.61529</v>
+        <v>4.27045</v>
       </c>
       <c r="C84" t="n">
-        <v>3615.29</v>
+        <v>4270.45</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.56625</v>
+        <v>2.57511</v>
       </c>
       <c r="B85" t="n">
-        <v>3.6184</v>
+        <v>4.26734</v>
       </c>
       <c r="C85" t="n">
-        <v>3618.4</v>
+        <v>4267.34</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60117</v>
+        <v>2.60859</v>
       </c>
       <c r="B86" t="n">
-        <v>3.56819</v>
+        <v>4.24482</v>
       </c>
       <c r="C86" t="n">
-        <v>3568.19</v>
+        <v>4244.82</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63634</v>
+        <v>2.6406</v>
       </c>
       <c r="B87" t="n">
-        <v>3.56256</v>
+        <v>4.22918</v>
       </c>
       <c r="C87" t="n">
-        <v>3562.56</v>
+        <v>4229.18</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66948</v>
+        <v>2.6726</v>
       </c>
       <c r="B88" t="n">
-        <v>3.54021</v>
+        <v>4.2121</v>
       </c>
       <c r="C88" t="n">
-        <v>3540.21</v>
+        <v>4212.1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.70157</v>
+        <v>2.7046</v>
       </c>
       <c r="B89" t="n">
-        <v>3.50709</v>
+        <v>4.200220000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>3507.09</v>
+        <v>4200.22</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.73357</v>
+        <v>2.7366</v>
       </c>
       <c r="B90" t="n">
-        <v>3.49667</v>
+        <v>4.167590000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>3496.67</v>
+        <v>4167.59</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.76557</v>
+        <v>2.7686</v>
       </c>
       <c r="B91" t="n">
-        <v>3.49197</v>
+        <v>4.156479999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>3491.97</v>
+        <v>4156.48</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79757</v>
+        <v>2.8006</v>
       </c>
       <c r="B92" t="n">
-        <v>3.46198</v>
+        <v>4.12162</v>
       </c>
       <c r="C92" t="n">
-        <v>3461.98</v>
+        <v>4121.62</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82957</v>
+        <v>2.8326</v>
       </c>
       <c r="B93" t="n">
-        <v>3.44263</v>
+        <v>4.10378</v>
       </c>
       <c r="C93" t="n">
-        <v>3442.63</v>
+        <v>4103.78</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.86157</v>
+        <v>2.86412</v>
       </c>
       <c r="B94" t="n">
-        <v>3.41813</v>
+        <v>4.08069</v>
       </c>
       <c r="C94" t="n">
-        <v>3418.13</v>
+        <v>4080.69</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.89357</v>
+        <v>2.89322</v>
       </c>
       <c r="B95" t="n">
-        <v>3.39912</v>
+        <v>4.0777</v>
       </c>
       <c r="C95" t="n">
-        <v>3399.12</v>
+        <v>4077.7</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.92517</v>
+        <v>2.92202</v>
       </c>
       <c r="B96" t="n">
-        <v>3.39001</v>
+        <v>4.04853</v>
       </c>
       <c r="C96" t="n">
-        <v>3390.01</v>
+        <v>4048.53</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.95482</v>
+        <v>2.95082</v>
       </c>
       <c r="B97" t="n">
-        <v>3.36502</v>
+        <v>4.03333</v>
       </c>
       <c r="C97" t="n">
-        <v>3365.02</v>
+        <v>4033.33</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.98373</v>
+        <v>2.97962</v>
       </c>
       <c r="B98" t="n">
-        <v>3.34381</v>
+        <v>4.01028</v>
       </c>
       <c r="C98" t="n">
-        <v>3343.81</v>
+        <v>4010.28</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.01254</v>
+        <v>3.00842</v>
       </c>
       <c r="B99" t="n">
-        <v>3.31801</v>
+        <v>3.99248</v>
       </c>
       <c r="C99" t="n">
-        <v>3318.01</v>
+        <v>3992.48</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.04134</v>
+        <v>3.03722</v>
       </c>
       <c r="B100" t="n">
-        <v>3.30759</v>
+        <v>3.96668</v>
       </c>
       <c r="C100" t="n">
-        <v>3307.59</v>
+        <v>3966.68</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.07014</v>
+        <v>3.06602</v>
       </c>
       <c r="B101" t="n">
-        <v>3.29548</v>
+        <v>3.95135</v>
       </c>
       <c r="C101" t="n">
-        <v>3295.48</v>
+        <v>3951.35</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.09894</v>
+        <v>3.09482</v>
       </c>
       <c r="B102" t="n">
-        <v>3.26653</v>
+        <v>3.92332</v>
       </c>
       <c r="C102" t="n">
-        <v>3266.53</v>
+        <v>3923.32</v>
       </c>
     </row>
   </sheetData>
